--- a/Timing of Exposure.xlsx
+++ b/Timing of Exposure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkbf4\Box Sync\Niranjana (Niranjana Krishnan)\Data Management\ArrestedEcdysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDECC426-DB04-4970-A3D6-1DE97A4F7983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D291B9-7765-467C-91A7-2D0EFAA2C34B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACB4DADF-0A02-4EC2-ACAD-FDDF14F72A06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>These data are used in Figures 4, 6, S2, and S4. They describe effect of timing of topical imidacloprid exposure on 5th and 6th instar corn earworm larvae. Table describes the data used to make the figures</t>
+    <t>These data are used in Figures 4, 6, S2, and S4. They describe effect of timing of topical imidacloprid exposure on 5th and 6th instar corn earworm larvae. Table summarizes the data used to make the figures. The three PDF documents contains the raw data.</t>
   </si>
 </sst>
 </file>
@@ -499,9 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2096B1-A7AE-4C16-9EAE-FED4A156A31E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
